--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il7-Il7r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il7-Il7r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Il7</t>
+  </si>
+  <si>
+    <t>Il7r</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Il7</t>
-  </si>
-  <si>
-    <t>Il7r</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.271003</v>
+        <v>0.3296565</v>
       </c>
       <c r="H2">
-        <v>0.542006</v>
+        <v>0.659313</v>
       </c>
       <c r="I2">
-        <v>0.1813976635659463</v>
+        <v>0.2343734281062221</v>
       </c>
       <c r="J2">
-        <v>0.1308560449753525</v>
+        <v>0.1802644281836906</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.09512666666667</v>
+        <v>29.63884466666667</v>
       </c>
       <c r="N2">
-        <v>120.28538</v>
+        <v>88.916534</v>
       </c>
       <c r="O2">
-        <v>0.6247339948340943</v>
+        <v>0.2980837622946661</v>
       </c>
       <c r="P2">
-        <v>0.6247339948340944</v>
+        <v>0.2982355126435957</v>
       </c>
       <c r="Q2">
-        <v>10.86589961204667</v>
+        <v>9.770637796857001</v>
       </c>
       <c r="R2">
-        <v>65.19539767228</v>
+        <v>58.623826781142</v>
       </c>
       <c r="S2">
-        <v>0.1133252870131247</v>
+        <v>0.0698629132318011</v>
       </c>
       <c r="T2">
-        <v>0.08175021972564188</v>
+        <v>0.0537612541507676</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,46 +605,46 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.271003</v>
+        <v>0.3296565</v>
       </c>
       <c r="H3">
-        <v>0.542006</v>
+        <v>0.659313</v>
       </c>
       <c r="I3">
-        <v>0.1813976635659463</v>
+        <v>0.2343734281062221</v>
       </c>
       <c r="J3">
-        <v>0.1308560449753525</v>
+        <v>0.1802644281836906</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.07349133333333333</v>
+        <v>0.15178</v>
       </c>
       <c r="N3">
-        <v>0.220474</v>
+        <v>0.30356</v>
       </c>
       <c r="O3">
-        <v>0.001145090141271135</v>
+        <v>0.001526481681385076</v>
       </c>
       <c r="P3">
-        <v>0.001145090141271135</v>
+        <v>0.00101817252816096</v>
       </c>
       <c r="Q3">
-        <v>0.01991637180733333</v>
+        <v>0.05003526357</v>
       </c>
       <c r="R3">
-        <v>0.119498230844</v>
+        <v>0.20014105428</v>
       </c>
       <c r="S3">
-        <v>0.0002077166761989832</v>
+        <v>0.00035776674460757</v>
       </c>
       <c r="T3">
-        <v>0.0001498419670270083</v>
+        <v>0.000183540288581278</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.271003</v>
+        <v>0.3296565</v>
       </c>
       <c r="H4">
-        <v>0.542006</v>
+        <v>0.659313</v>
       </c>
       <c r="I4">
-        <v>0.1813976635659463</v>
+        <v>0.2343734281062221</v>
       </c>
       <c r="J4">
-        <v>0.1308560449753525</v>
+        <v>0.1802644281836906</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,60 +685,60 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.0109</v>
+        <v>9.907502666666666</v>
       </c>
       <c r="N4">
-        <v>72.03270000000001</v>
+        <v>29.722508</v>
       </c>
       <c r="O4">
-        <v>0.3741209150246345</v>
+        <v>0.09964172703215479</v>
       </c>
       <c r="P4">
-        <v>0.3741209150246346</v>
+        <v>0.09969245326671611</v>
       </c>
       <c r="Q4">
-        <v>6.5070259327</v>
+        <v>3.266072652834</v>
       </c>
       <c r="R4">
-        <v>39.0421555962</v>
+        <v>19.596435917004</v>
       </c>
       <c r="S4">
-        <v>0.06786465987662264</v>
+        <v>0.02335337314695054</v>
       </c>
       <c r="T4">
-        <v>0.0489559832826836</v>
+        <v>0.01797100308235387</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.7595033333333334</v>
+        <v>0.3296565</v>
       </c>
       <c r="H5">
-        <v>2.27851</v>
+        <v>0.659313</v>
       </c>
       <c r="I5">
-        <v>0.5083786162412032</v>
+        <v>0.2343734281062221</v>
       </c>
       <c r="J5">
-        <v>0.5500987203772475</v>
+        <v>0.1802644281836906</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.09512666666667</v>
+        <v>59.73313466666667</v>
       </c>
       <c r="N5">
-        <v>120.28538</v>
+        <v>179.199404</v>
       </c>
       <c r="O5">
-        <v>0.6247339948340943</v>
+        <v>0.600748028991794</v>
       </c>
       <c r="P5">
-        <v>0.6247339948340944</v>
+        <v>0.6010538615615272</v>
       </c>
       <c r="Q5">
-        <v>30.45238235375556</v>
+        <v>19.691416108242</v>
       </c>
       <c r="R5">
-        <v>274.0714411838</v>
+        <v>118.148496649452</v>
       </c>
       <c r="S5">
-        <v>0.3176014038125958</v>
+        <v>0.1407993749828629</v>
       </c>
       <c r="T5">
-        <v>0.3436653711344013</v>
+        <v>0.1083486306619878</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7595033333333334</v>
+        <v>0.7595033333333333</v>
       </c>
       <c r="H6">
         <v>2.27851</v>
       </c>
       <c r="I6">
-        <v>0.5083786162412032</v>
+        <v>0.5399784317659018</v>
       </c>
       <c r="J6">
-        <v>0.5500987203772475</v>
+        <v>0.6229731588195906</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.07349133333333333</v>
+        <v>29.63884466666667</v>
       </c>
       <c r="N6">
-        <v>0.220474</v>
+        <v>88.916534</v>
       </c>
       <c r="O6">
-        <v>0.001145090141271135</v>
+        <v>0.2980837622946661</v>
       </c>
       <c r="P6">
-        <v>0.001145090141271135</v>
+        <v>0.2982355126435957</v>
       </c>
       <c r="Q6">
-        <v>0.05581691263777778</v>
+        <v>22.51080132048222</v>
       </c>
       <c r="R6">
-        <v>0.5023522137400001</v>
+        <v>202.59721188434</v>
       </c>
       <c r="S6">
-        <v>0.0005821393414908633</v>
+        <v>0.1609588024987536</v>
       </c>
       <c r="T6">
-        <v>0.0006299126214298527</v>
+        <v>0.1857927193837608</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,78 +853,78 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7595033333333334</v>
+        <v>0.7595033333333333</v>
       </c>
       <c r="H7">
         <v>2.27851</v>
       </c>
       <c r="I7">
-        <v>0.5083786162412032</v>
+        <v>0.5399784317659018</v>
       </c>
       <c r="J7">
-        <v>0.5500987203772475</v>
+        <v>0.6229731588195906</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>24.0109</v>
+        <v>0.15178</v>
       </c>
       <c r="N7">
-        <v>72.03270000000001</v>
+        <v>0.30356</v>
       </c>
       <c r="O7">
-        <v>0.3741209150246345</v>
+        <v>0.001526481681385076</v>
       </c>
       <c r="P7">
-        <v>0.3741209150246346</v>
+        <v>0.00101817252816096</v>
       </c>
       <c r="Q7">
-        <v>18.23635858633334</v>
+        <v>0.1152774159333333</v>
       </c>
       <c r="R7">
-        <v>164.127227277</v>
+        <v>0.6916644956</v>
       </c>
       <c r="S7">
-        <v>0.1901950730871164</v>
+        <v>0.0008242671844336902</v>
       </c>
       <c r="T7">
-        <v>0.2058034366214164</v>
+        <v>0.0006342941560917616</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.05067566666666667</v>
+        <v>0.7595033333333333</v>
       </c>
       <c r="H8">
-        <v>0.152027</v>
+        <v>2.27851</v>
       </c>
       <c r="I8">
-        <v>0.03392009510219458</v>
+        <v>0.5399784317659018</v>
       </c>
       <c r="J8">
-        <v>0.03670374857375732</v>
+        <v>0.6229731588195906</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,90 +933,90 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.09512666666667</v>
+        <v>9.907502666666666</v>
       </c>
       <c r="N8">
-        <v>120.28538</v>
+        <v>29.722508</v>
       </c>
       <c r="O8">
-        <v>0.6247339948340943</v>
+        <v>0.09964172703215479</v>
       </c>
       <c r="P8">
-        <v>0.6247339948340944</v>
+        <v>0.09969245326671611</v>
       </c>
       <c r="Q8">
-        <v>2.031847273917778</v>
+        <v>7.524781300342221</v>
       </c>
       <c r="R8">
-        <v>18.28662546526</v>
+        <v>67.72303170307998</v>
       </c>
       <c r="S8">
-        <v>0.02119103651834642</v>
+        <v>0.053804383501269</v>
       </c>
       <c r="T8">
-        <v>0.0229300794718696</v>
+        <v>0.06210572252204054</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.05067566666666667</v>
+        <v>0.7595033333333333</v>
       </c>
       <c r="H9">
-        <v>0.152027</v>
+        <v>2.27851</v>
       </c>
       <c r="I9">
-        <v>0.03392009510219458</v>
+        <v>0.5399784317659018</v>
       </c>
       <c r="J9">
-        <v>0.03670374857375732</v>
+        <v>0.6229731588195906</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.07349133333333333</v>
+        <v>59.73313466666667</v>
       </c>
       <c r="N9">
-        <v>0.220474</v>
+        <v>179.199404</v>
       </c>
       <c r="O9">
-        <v>0.001145090141271135</v>
+        <v>0.600748028991794</v>
       </c>
       <c r="P9">
-        <v>0.001145090141271135</v>
+        <v>0.6010538615615272</v>
       </c>
       <c r="Q9">
-        <v>0.003724222310888889</v>
+        <v>45.36751488978222</v>
       </c>
       <c r="R9">
-        <v>0.033518000798</v>
+        <v>408.30763400804</v>
       </c>
       <c r="S9">
-        <v>3.884156649250232E-05</v>
+        <v>0.3243909785814454</v>
       </c>
       <c r="T9">
-        <v>4.202910063950397E-05</v>
+        <v>0.3744404227576975</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.05067566666666667</v>
+        <v>0.084886</v>
       </c>
       <c r="H10">
-        <v>0.152027</v>
+        <v>0.254658</v>
       </c>
       <c r="I10">
-        <v>0.03392009510219458</v>
+        <v>0.06035076759664913</v>
       </c>
       <c r="J10">
-        <v>0.03670374857375732</v>
+        <v>0.06962668528059096</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,163 +1057,163 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.0109</v>
+        <v>29.63884466666667</v>
       </c>
       <c r="N10">
-        <v>72.03270000000001</v>
+        <v>88.916534</v>
       </c>
       <c r="O10">
-        <v>0.3741209150246345</v>
+        <v>0.2980837622946661</v>
       </c>
       <c r="P10">
-        <v>0.3741209150246346</v>
+        <v>0.2982355126435957</v>
       </c>
       <c r="Q10">
-        <v>1.216768364766667</v>
+        <v>2.515922968374667</v>
       </c>
       <c r="R10">
-        <v>10.9509152829</v>
+        <v>22.643306715372</v>
       </c>
       <c r="S10">
-        <v>0.01269021701735566</v>
+        <v>0.0179895838625802</v>
       </c>
       <c r="T10">
-        <v>0.01373164000124821</v>
+        <v>0.02076515017833135</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.084886</v>
+      </c>
+      <c r="H11">
+        <v>0.254658</v>
+      </c>
+      <c r="I11">
+        <v>0.06035076759664913</v>
+      </c>
+      <c r="J11">
+        <v>0.06962668528059096</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.5</v>
       </c>
-      <c r="G11">
-        <v>0.0689105</v>
-      </c>
-      <c r="H11">
-        <v>0.137821</v>
-      </c>
-      <c r="I11">
-        <v>0.04612570228064317</v>
-      </c>
-      <c r="J11">
-        <v>0.03327400614485458</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <v>40.09512666666667</v>
+        <v>0.15178</v>
       </c>
       <c r="N11">
-        <v>120.28538</v>
+        <v>0.30356</v>
       </c>
       <c r="O11">
-        <v>0.6247339948340943</v>
+        <v>0.001526481681385076</v>
       </c>
       <c r="P11">
-        <v>0.6247339948340944</v>
+        <v>0.00101817252816096</v>
       </c>
       <c r="Q11">
-        <v>2.762975226163333</v>
+        <v>0.01288399708</v>
       </c>
       <c r="R11">
-        <v>16.57785135698</v>
+        <v>0.07730398247999999</v>
       </c>
       <c r="S11">
-        <v>0.0288162942503143</v>
+        <v>9.212434119381292E-05</v>
       </c>
       <c r="T11">
-        <v>0.02078740278300921</v>
+        <v>7.089197817960677E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
-        <v>24</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.0689105</v>
+        <v>0.084886</v>
       </c>
       <c r="H12">
-        <v>0.137821</v>
+        <v>0.254658</v>
       </c>
       <c r="I12">
-        <v>0.04612570228064317</v>
+        <v>0.06035076759664913</v>
       </c>
       <c r="J12">
-        <v>0.03327400614485458</v>
+        <v>0.06962668528059096</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.07349133333333333</v>
+        <v>9.907502666666666</v>
       </c>
       <c r="N12">
-        <v>0.220474</v>
+        <v>29.722508</v>
       </c>
       <c r="O12">
-        <v>0.001145090141271135</v>
+        <v>0.09964172703215479</v>
       </c>
       <c r="P12">
-        <v>0.001145090141271135</v>
+        <v>0.09969245326671611</v>
       </c>
       <c r="Q12">
-        <v>0.005064324525666666</v>
+        <v>0.8410082713626666</v>
       </c>
       <c r="R12">
-        <v>0.030385947154</v>
+        <v>7.569074442263999</v>
       </c>
       <c r="S12">
-        <v>5.281808694077199E-05</v>
+        <v>0.006013454711046326</v>
       </c>
       <c r="T12">
-        <v>3.810173639706813E-05</v>
+        <v>0.006941255068451665</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1222,19 +1222,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.0689105</v>
+        <v>0.084886</v>
       </c>
       <c r="H13">
-        <v>0.137821</v>
+        <v>0.254658</v>
       </c>
       <c r="I13">
-        <v>0.04612570228064317</v>
+        <v>0.06035076759664913</v>
       </c>
       <c r="J13">
-        <v>0.03327400614485458</v>
+        <v>0.06962668528059096</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,60 +1243,60 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.0109</v>
+        <v>59.73313466666667</v>
       </c>
       <c r="N13">
-        <v>72.03270000000001</v>
+        <v>179.199404</v>
       </c>
       <c r="O13">
-        <v>0.3741209150246345</v>
+        <v>0.600748028991794</v>
       </c>
       <c r="P13">
-        <v>0.3741209150246346</v>
+        <v>0.6010538615615272</v>
       </c>
       <c r="Q13">
-        <v>1.65460312445</v>
+        <v>5.070506869314667</v>
       </c>
       <c r="R13">
-        <v>9.9276187467</v>
+        <v>45.634561823832</v>
       </c>
       <c r="S13">
-        <v>0.0172565899433881</v>
+        <v>0.0362556046818288</v>
       </c>
       <c r="T13">
-        <v>0.01244850162544831</v>
+        <v>0.04184938805562834</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>0.3438793333333334</v>
+        <v>0.232498</v>
       </c>
       <c r="H14">
-        <v>1.031638</v>
+        <v>0.464996</v>
       </c>
       <c r="I14">
-        <v>0.2301779228100128</v>
+        <v>0.1652973725312269</v>
       </c>
       <c r="J14">
-        <v>0.249067479928788</v>
+        <v>0.1271357277161278</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,152 +1305,214 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.09512666666667</v>
+        <v>29.63884466666667</v>
       </c>
       <c r="N14">
-        <v>120.28538</v>
+        <v>88.916534</v>
       </c>
       <c r="O14">
-        <v>0.6247339948340943</v>
+        <v>0.2980837622946661</v>
       </c>
       <c r="P14">
-        <v>0.6247339948340944</v>
+        <v>0.2982355126435957</v>
       </c>
       <c r="Q14">
-        <v>13.78788542804889</v>
+        <v>6.890972107310668</v>
       </c>
       <c r="R14">
-        <v>124.09096885244</v>
+        <v>41.345832643864</v>
       </c>
       <c r="S14">
-        <v>0.1437999732397131</v>
+        <v>0.04927246270153112</v>
       </c>
       <c r="T14">
-        <v>0.1556009217191724</v>
+        <v>0.03791638893073598</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>0.3438793333333334</v>
+        <v>0.232498</v>
       </c>
       <c r="H15">
-        <v>1.031638</v>
+        <v>0.464996</v>
       </c>
       <c r="I15">
-        <v>0.2301779228100128</v>
+        <v>0.1652973725312269</v>
       </c>
       <c r="J15">
-        <v>0.249067479928788</v>
+        <v>0.1271357277161278</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M15">
-        <v>0.07349133333333333</v>
+        <v>0.15178</v>
       </c>
       <c r="N15">
-        <v>0.220474</v>
+        <v>0.30356</v>
       </c>
       <c r="O15">
-        <v>0.001145090141271135</v>
+        <v>0.001526481681385076</v>
       </c>
       <c r="P15">
-        <v>0.001145090141271135</v>
+        <v>0.00101817252816096</v>
       </c>
       <c r="Q15">
-        <v>0.02527215071244444</v>
+        <v>0.03528854644</v>
       </c>
       <c r="R15">
-        <v>0.227449356412</v>
+        <v>0.14115418576</v>
       </c>
       <c r="S15">
-        <v>0.0002635744701480139</v>
+        <v>0.0002523234111500025</v>
       </c>
       <c r="T15">
-        <v>0.0002852047157777014</v>
+        <v>0.0001294461053083133</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.232498</v>
+      </c>
+      <c r="H16">
+        <v>0.464996</v>
+      </c>
+      <c r="I16">
+        <v>0.1652973725312269</v>
+      </c>
+      <c r="J16">
+        <v>0.1271357277161278</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>9.907502666666666</v>
+      </c>
+      <c r="N16">
+        <v>29.722508</v>
+      </c>
+      <c r="O16">
+        <v>0.09964172703215479</v>
+      </c>
+      <c r="P16">
+        <v>0.09969245326671611</v>
+      </c>
+      <c r="Q16">
+        <v>2.303474554994667</v>
+      </c>
+      <c r="R16">
+        <v>13.820847329968</v>
+      </c>
+      <c r="S16">
+        <v>0.01647051567288892</v>
+      </c>
+      <c r="T16">
+        <v>0.01267447259387002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.3438793333333334</v>
-      </c>
-      <c r="H16">
-        <v>1.031638</v>
-      </c>
-      <c r="I16">
-        <v>0.2301779228100128</v>
-      </c>
-      <c r="J16">
-        <v>0.249067479928788</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>24.0109</v>
-      </c>
-      <c r="N16">
-        <v>72.03270000000001</v>
-      </c>
-      <c r="O16">
-        <v>0.3741209150246345</v>
-      </c>
-      <c r="P16">
-        <v>0.3741209150246346</v>
-      </c>
-      <c r="Q16">
-        <v>8.256852284733336</v>
-      </c>
-      <c r="R16">
-        <v>74.31167056260001</v>
-      </c>
-      <c r="S16">
-        <v>0.0861143751001517</v>
-      </c>
-      <c r="T16">
-        <v>0.09318135349383798</v>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+      <c r="G17">
+        <v>0.232498</v>
+      </c>
+      <c r="H17">
+        <v>0.464996</v>
+      </c>
+      <c r="I17">
+        <v>0.1652973725312269</v>
+      </c>
+      <c r="J17">
+        <v>0.1271357277161278</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>59.73313466666667</v>
+      </c>
+      <c r="N17">
+        <v>179.199404</v>
+      </c>
+      <c r="O17">
+        <v>0.600748028991794</v>
+      </c>
+      <c r="P17">
+        <v>0.6010538615615272</v>
+      </c>
+      <c r="Q17">
+        <v>13.88783434373067</v>
+      </c>
+      <c r="R17">
+        <v>83.32700606238402</v>
+      </c>
+      <c r="S17">
+        <v>0.0993020707456569</v>
+      </c>
+      <c r="T17">
+        <v>0.07641542008621351</v>
       </c>
     </row>
   </sheetData>
